--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_极光组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>退房时生成买回单直接按签约单进行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +832,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -946,9 +954,15 @@
       <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
